--- a/template.xlsx
+++ b/template.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Подвал" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -376,8 +377,8 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,4 +675,127 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>